--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N2">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O2">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P2">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q2">
-        <v>15.5255420774447</v>
+        <v>0.397208290622</v>
       </c>
       <c r="R2">
-        <v>15.5255420774447</v>
+        <v>1.588833162488</v>
       </c>
       <c r="S2">
-        <v>0.08506335049659265</v>
+        <v>0.001545843131664411</v>
       </c>
       <c r="T2">
-        <v>0.08506335049659265</v>
+        <v>0.0008922383494864538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N3">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P3">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q3">
-        <v>21.39879081027284</v>
+        <v>0.5526455353228333</v>
       </c>
       <c r="R3">
-        <v>21.39879081027284</v>
+        <v>3.315873211937</v>
       </c>
       <c r="S3">
-        <v>0.1172424662416099</v>
+        <v>0.002150769068002143</v>
       </c>
       <c r="T3">
-        <v>0.1172424662416099</v>
+        <v>0.0018620893065274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N4">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O4">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P4">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q4">
-        <v>24.92605724614122</v>
+        <v>0.6224606139656667</v>
       </c>
       <c r="R4">
-        <v>24.92605724614122</v>
+        <v>3.734763683794</v>
       </c>
       <c r="S4">
-        <v>0.1365681103725826</v>
+        <v>0.002422473265408583</v>
       </c>
       <c r="T4">
-        <v>0.1365681103725826</v>
+        <v>0.002097324919711622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N5">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O5">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P5">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q5">
-        <v>26.10478325386307</v>
+        <v>0.6543157897011667</v>
       </c>
       <c r="R5">
-        <v>26.10478325386307</v>
+        <v>3.925894738207</v>
       </c>
       <c r="S5">
-        <v>0.1430262670690859</v>
+        <v>0.002546446268443274</v>
       </c>
       <c r="T5">
-        <v>0.1430262670690859</v>
+        <v>0.002204658062392264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N6">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O6">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P6">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q6">
-        <v>11.65033172823398</v>
+        <v>0.2946511476458333</v>
       </c>
       <c r="R6">
-        <v>11.65033172823398</v>
+        <v>1.767906885875</v>
       </c>
       <c r="S6">
-        <v>0.06383134619435137</v>
+        <v>0.001146714365181279</v>
       </c>
       <c r="T6">
-        <v>0.06383134619435137</v>
+        <v>0.0009928004771934385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H7">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I7">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J7">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91945223902961</v>
+        <v>3.058124</v>
       </c>
       <c r="N7">
-        <v>2.91945223902961</v>
+        <v>6.116248000000001</v>
       </c>
       <c r="O7">
-        <v>0.1343211863482178</v>
+        <v>0.1377127700989335</v>
       </c>
       <c r="P7">
-        <v>0.1343211863482178</v>
+        <v>0.1010201882047394</v>
       </c>
       <c r="Q7">
-        <v>15.45507340944396</v>
+        <v>0.402664716142</v>
       </c>
       <c r="R7">
-        <v>15.45507340944396</v>
+        <v>1.610658864568</v>
       </c>
       <c r="S7">
-        <v>0.08467725763263508</v>
+        <v>0.001567078282371669</v>
       </c>
       <c r="T7">
-        <v>0.08467725763263508</v>
+        <v>0.0009044949720570377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93276371967586</v>
+        <v>3.016684</v>
       </c>
       <c r="N8">
-        <v>2.93276371967586</v>
+        <v>6.033367999999999</v>
       </c>
       <c r="O8">
-        <v>0.1349336347549949</v>
+        <v>0.1358466530961894</v>
       </c>
       <c r="P8">
-        <v>0.1349336347549949</v>
+        <v>0.09965128472037957</v>
       </c>
       <c r="Q8">
-        <v>9.102194918820727</v>
+        <v>18.30572520368533</v>
       </c>
       <c r="R8">
-        <v>9.102194918820727</v>
+        <v>109.834351222112</v>
       </c>
       <c r="S8">
-        <v>0.04987028425840225</v>
+        <v>0.07124166399432588</v>
       </c>
       <c r="T8">
-        <v>0.04987028425840225</v>
+        <v>0.06167949068854663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.04221617643063</v>
+        <v>4.197185666666667</v>
       </c>
       <c r="N9">
-        <v>4.04221617643063</v>
+        <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1859784739875007</v>
+        <v>0.1890067455656493</v>
       </c>
       <c r="P9">
-        <v>0.1859784739875007</v>
+        <v>0.2079708765783702</v>
       </c>
       <c r="Q9">
-        <v>12.54551783187918</v>
+        <v>25.46919977128756</v>
       </c>
       <c r="R9">
-        <v>12.54551783187918</v>
+        <v>229.222797941588</v>
       </c>
       <c r="S9">
-        <v>0.06873600774589078</v>
+        <v>0.09912025621061647</v>
       </c>
       <c r="T9">
-        <v>0.06873600774589078</v>
+        <v>0.1287242586124042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.70851426645183</v>
+        <v>4.727411333333333</v>
       </c>
       <c r="N10">
-        <v>4.70851426645183</v>
+        <v>14.182234</v>
       </c>
       <c r="O10">
-        <v>0.2166342075243326</v>
+        <v>0.2128837516433035</v>
       </c>
       <c r="P10">
-        <v>0.2166342075243326</v>
+        <v>0.234243599645347</v>
       </c>
       <c r="Q10">
-        <v>14.61345635986985</v>
+        <v>28.68669465969511</v>
       </c>
       <c r="R10">
-        <v>14.61345635986985</v>
+        <v>258.180251937256</v>
       </c>
       <c r="S10">
-        <v>0.08006609715174999</v>
+        <v>0.1116420048544367</v>
       </c>
       <c r="T10">
-        <v>0.08006609715174999</v>
+        <v>0.1449858470336617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H11">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J11">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.93117476060019</v>
+        <v>4.969342333333334</v>
       </c>
       <c r="N11">
-        <v>4.93117476060019</v>
+        <v>14.908027</v>
       </c>
       <c r="O11">
-        <v>0.2268786024580991</v>
+        <v>0.2237783354413461</v>
       </c>
       <c r="P11">
-        <v>0.2268786024580991</v>
+        <v>0.2462312995322192</v>
       </c>
       <c r="Q11">
-        <v>15.30451074139477</v>
+        <v>30.15477099922978</v>
       </c>
       <c r="R11">
-        <v>15.30451074139477</v>
+        <v>271.392938993068</v>
       </c>
       <c r="S11">
-        <v>0.08385233538901322</v>
+        <v>0.1173554196542007</v>
       </c>
       <c r="T11">
-        <v>0.08385233538901322</v>
+        <v>0.1524056733371977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J12">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20073927495205</v>
+        <v>2.237791666666666</v>
       </c>
       <c r="N12">
-        <v>2.20073927495205</v>
+        <v>6.713374999999999</v>
       </c>
       <c r="O12">
-        <v>0.1012538949268551</v>
+        <v>0.1007717441545784</v>
       </c>
       <c r="P12">
-        <v>0.1012538949268551</v>
+        <v>0.1108827513189446</v>
       </c>
       <c r="Q12">
-        <v>6.830266520185855</v>
+        <v>13.57928086372222</v>
       </c>
       <c r="R12">
-        <v>6.830266520185855</v>
+        <v>122.2135277735</v>
       </c>
       <c r="S12">
-        <v>0.03742254873250375</v>
+        <v>0.05284743181784009</v>
       </c>
       <c r="T12">
-        <v>0.03742254873250375</v>
+        <v>0.06863124390907728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.204484</v>
+      </c>
+      <c r="I13">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J13">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.058124</v>
+      </c>
+      <c r="N13">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P13">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q13">
+        <v>18.55718980933867</v>
+      </c>
+      <c r="R13">
+        <v>111.343138856032</v>
+      </c>
+      <c r="S13">
+        <v>0.07222030629027894</v>
+      </c>
+      <c r="T13">
+        <v>0.06252677800605599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.016684</v>
+      </c>
+      <c r="N14">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P14">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q14">
+        <v>0.171003749224</v>
+      </c>
+      <c r="R14">
+        <v>1.026022495344</v>
+      </c>
+      <c r="S14">
+        <v>0.0006655071846885123</v>
+      </c>
+      <c r="T14">
+        <v>0.0005761817158625788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N15">
+        <v>12.591557</v>
+      </c>
+      <c r="O15">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P15">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q15">
+        <v>0.2379216667006666</v>
+      </c>
+      <c r="R15">
+        <v>2.141295000306</v>
+      </c>
+      <c r="S15">
+        <v>0.0009259362984781669</v>
+      </c>
+      <c r="T15">
+        <v>0.001202483408544194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.182234</v>
+      </c>
+      <c r="O16">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P16">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q16">
+        <v>0.2679780388413333</v>
+      </c>
+      <c r="R16">
+        <v>2.411802349572</v>
+      </c>
+      <c r="S16">
+        <v>0.001042908772450556</v>
+      </c>
+      <c r="T16">
+        <v>0.001354391762757486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.170058</v>
+      </c>
+      <c r="I17">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J17">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N17">
+        <v>14.908027</v>
+      </c>
+      <c r="O17">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P17">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q17">
+        <v>0.2816921395073333</v>
+      </c>
+      <c r="R17">
+        <v>2.535229255566</v>
+      </c>
+      <c r="S17">
+        <v>0.00109628089187005</v>
+      </c>
+      <c r="T17">
+        <v>0.001423704401419846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.170058</v>
+      </c>
+      <c r="I18">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J18">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N18">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P18">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q18">
+        <v>0.1268514584166666</v>
+      </c>
+      <c r="R18">
+        <v>1.14166312575</v>
+      </c>
+      <c r="S18">
+        <v>0.0004936766436268256</v>
+      </c>
+      <c r="T18">
+        <v>0.0006411218289235697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.170058</v>
+      </c>
+      <c r="I19">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J19">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.058124</v>
+      </c>
+      <c r="N19">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P19">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q19">
+        <v>0.173352817064</v>
+      </c>
+      <c r="R19">
+        <v>1.040116902384</v>
+      </c>
+      <c r="S19">
+        <v>0.0006746492153862891</v>
+      </c>
+      <c r="T19">
+        <v>0.0005840966881650625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.016684</v>
+      </c>
+      <c r="N20">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P20">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q20">
+        <v>0.4368711490733332</v>
+      </c>
+      <c r="R20">
+        <v>2.621226894439999</v>
+      </c>
+      <c r="S20">
+        <v>0.001700201836572508</v>
+      </c>
+      <c r="T20">
+        <v>0.001471997949905777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="N13">
-        <v>2.91945223902961</v>
-      </c>
-      <c r="O13">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="P13">
-        <v>0.1343211863482178</v>
-      </c>
-      <c r="Q13">
-        <v>9.060881092313876</v>
-      </c>
-      <c r="R13">
-        <v>9.060881092313876</v>
-      </c>
-      <c r="S13">
-        <v>0.04964392871558271</v>
-      </c>
-      <c r="T13">
-        <v>0.04964392871558271</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.591557</v>
+      </c>
+      <c r="O21">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P21">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q21">
+        <v>0.6078294329372222</v>
+      </c>
+      <c r="R21">
+        <v>5.470464896435</v>
+      </c>
+      <c r="S21">
+        <v>0.002365532080556822</v>
+      </c>
+      <c r="T21">
+        <v>0.003072039711504708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434455</v>
+      </c>
+      <c r="I22">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J22">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N22">
+        <v>14.182234</v>
+      </c>
+      <c r="O22">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P22">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q22">
+        <v>0.6846158302744444</v>
+      </c>
+      <c r="R22">
+        <v>6.16154247247</v>
+      </c>
+      <c r="S22">
+        <v>0.00266436704380274</v>
+      </c>
+      <c r="T22">
+        <v>0.00346012697602467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434455</v>
+      </c>
+      <c r="I23">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J23">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N23">
+        <v>14.908027</v>
+      </c>
+      <c r="O23">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P23">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q23">
+        <v>0.7196518744761111</v>
+      </c>
+      <c r="R23">
+        <v>6.476866870285</v>
+      </c>
+      <c r="S23">
+        <v>0.002800719253886336</v>
+      </c>
+      <c r="T23">
+        <v>0.003637203164325461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434455</v>
+      </c>
+      <c r="I24">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J24">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P24">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q24">
+        <v>0.3240732595138888</v>
+      </c>
+      <c r="R24">
+        <v>2.916659335624999</v>
+      </c>
+      <c r="S24">
+        <v>0.001261218444336006</v>
+      </c>
+      <c r="T24">
+        <v>0.001637903445794902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434455</v>
+      </c>
+      <c r="I25">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J25">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.058124</v>
+      </c>
+      <c r="N25">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P25">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q25">
+        <v>0.4428724208066667</v>
+      </c>
+      <c r="R25">
+        <v>2.65723452484</v>
+      </c>
+      <c r="S25">
+        <v>0.001723557403183915</v>
+      </c>
+      <c r="T25">
+        <v>0.001492218693955899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.016684</v>
+      </c>
+      <c r="N26">
+        <v>6.033367999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1358466530961894</v>
+      </c>
+      <c r="P26">
+        <v>0.09965128472037957</v>
+      </c>
+      <c r="Q26">
+        <v>15.595331666354</v>
+      </c>
+      <c r="R26">
+        <v>62.381326665416</v>
+      </c>
+      <c r="S26">
+        <v>0.06069343694893805</v>
+      </c>
+      <c r="T26">
+        <v>0.03503137601657812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.1696935</v>
+      </c>
+      <c r="H27">
+        <v>10.339387</v>
+      </c>
+      <c r="I27">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J27">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N27">
+        <v>12.591557</v>
+      </c>
+      <c r="O27">
+        <v>0.1890067455656493</v>
+      </c>
+      <c r="P27">
+        <v>0.2079708765783702</v>
+      </c>
+      <c r="Q27">
+        <v>21.69816345925983</v>
+      </c>
+      <c r="R27">
+        <v>130.188980755559</v>
+      </c>
+      <c r="S27">
+        <v>0.08444425190799562</v>
+      </c>
+      <c r="T27">
+        <v>0.07311000553938966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.1696935</v>
+      </c>
+      <c r="H28">
+        <v>10.339387</v>
+      </c>
+      <c r="I28">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J28">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.727411333333333</v>
+      </c>
+      <c r="N28">
+        <v>14.182234</v>
+      </c>
+      <c r="O28">
+        <v>0.2128837516433035</v>
+      </c>
+      <c r="P28">
+        <v>0.234243599645347</v>
+      </c>
+      <c r="Q28">
+        <v>24.43926764175967</v>
+      </c>
+      <c r="R28">
+        <v>146.635605850558</v>
+      </c>
+      <c r="S28">
+        <v>0.09511199770720494</v>
+      </c>
+      <c r="T28">
+        <v>0.08234590895319145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.1696935</v>
+      </c>
+      <c r="H29">
+        <v>10.339387</v>
+      </c>
+      <c r="I29">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J29">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.969342333333334</v>
+      </c>
+      <c r="N29">
+        <v>14.908027</v>
+      </c>
+      <c r="O29">
+        <v>0.2237783354413461</v>
+      </c>
+      <c r="P29">
+        <v>0.2462312995322192</v>
+      </c>
+      <c r="Q29">
+        <v>25.68997675990817</v>
+      </c>
+      <c r="R29">
+        <v>154.139860559449</v>
+      </c>
+      <c r="S29">
+        <v>0.09997946937294572</v>
+      </c>
+      <c r="T29">
+        <v>0.0865600605668839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.1696935</v>
+      </c>
+      <c r="H30">
+        <v>10.339387</v>
+      </c>
+      <c r="I30">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J30">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.237791666666666</v>
+      </c>
+      <c r="N30">
+        <v>6.713374999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.1007717441545784</v>
+      </c>
+      <c r="P30">
+        <v>0.1108827513189446</v>
+      </c>
+      <c r="Q30">
+        <v>11.56869703352083</v>
+      </c>
+      <c r="R30">
+        <v>69.41218220112499</v>
+      </c>
+      <c r="S30">
+        <v>0.04502270288359414</v>
+      </c>
+      <c r="T30">
+        <v>0.03897968165795541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.1696935</v>
+      </c>
+      <c r="H31">
+        <v>10.339387</v>
+      </c>
+      <c r="I31">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J31">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.058124</v>
+      </c>
+      <c r="N31">
+        <v>6.116248000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1377127700989335</v>
+      </c>
+      <c r="P31">
+        <v>0.1010201882047394</v>
+      </c>
+      <c r="Q31">
+        <v>15.809563764994</v>
+      </c>
+      <c r="R31">
+        <v>63.23825505997601</v>
+      </c>
+      <c r="S31">
+        <v>0.06152717890771266</v>
+      </c>
+      <c r="T31">
+        <v>0.03551259984450542</v>
       </c>
     </row>
   </sheetData>
